--- a/algorithm/phone.xlsx
+++ b/algorithm/phone.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Company</t>
   </si>
@@ -51,6 +51,18 @@
   </si>
   <si>
     <t>Samsung Electro Mechanics co.,LTD.</t>
+  </si>
+  <si>
+    <t>LG Electronics</t>
+  </si>
+  <si>
+    <t>Liteon Technology Corporation</t>
+  </si>
+  <si>
+    <t>Microsoft</t>
+  </si>
+  <si>
+    <t>Nokia Corporation</t>
   </si>
 </sst>
 </file>
@@ -368,10 +380,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A9"/>
+  <dimension ref="A1:A13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A2" sqref="A2:A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -396,35 +408,58 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>8</v>
       </c>
     </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
+  <sortState ref="A2:A13">
+    <sortCondition ref="A2"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>